--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="lifehistory_trait" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="starvation" sheetId="4" r:id="rId4"/>
     <sheet name="desiccation" sheetId="5" r:id="rId5"/>
     <sheet name="correlation" sheetId="6" r:id="rId6"/>
+    <sheet name="correlation_withoutsex" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8193" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8211" uniqueCount="54">
   <si>
     <t>population</t>
   </si>
@@ -145,6 +146,42 @@
   </si>
   <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>sd6</t>
+  </si>
+  <si>
+    <t>se6</t>
+  </si>
+  <si>
+    <t>sd7</t>
+  </si>
+  <si>
+    <t>se7</t>
+  </si>
+  <si>
+    <t>sd8</t>
+  </si>
+  <si>
+    <t>se8</t>
+  </si>
+  <si>
+    <t>sd9</t>
+  </si>
+  <si>
+    <t>se9</t>
+  </si>
+  <si>
+    <t>sd10</t>
+  </si>
+  <si>
+    <t>se10</t>
+  </si>
+  <si>
+    <t>sd11</t>
+  </si>
+  <si>
+    <t>se11</t>
   </si>
 </sst>
 </file>
@@ -92567,15 +92604,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -92630,8 +92667,62 @@
       <c r="R1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -92686,8 +92777,62 @@
       <c r="R2">
         <v>202.46397999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>19.775279999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.7885546000000001</v>
+      </c>
+      <c r="U2">
+        <v>0.18958639999999999</v>
+      </c>
+      <c r="V2">
+        <v>12.719099999999999</v>
+      </c>
+      <c r="W2">
+        <v>0.78318639999999995</v>
+      </c>
+      <c r="X2">
+        <v>8.3017599999999997E-2</v>
+      </c>
+      <c r="Y2">
+        <v>32.49438</v>
+      </c>
+      <c r="Z2">
+        <v>1.7459279999999999</v>
+      </c>
+      <c r="AA2">
+        <v>0.18506800000000001</v>
+      </c>
+      <c r="AB2">
+        <v>2.5583149999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.17920430000000001</v>
+      </c>
+      <c r="AD2">
+        <v>1.8995620000000001E-2</v>
+      </c>
+      <c r="AE2">
+        <v>257.62470000000002</v>
+      </c>
+      <c r="AF2">
+        <v>41.54956</v>
+      </c>
+      <c r="AG2">
+        <v>4.4042450000000004</v>
+      </c>
+      <c r="AH2">
+        <v>149.91810000000001</v>
+      </c>
+      <c r="AI2">
+        <v>38.735340000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>4.1059380000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -92742,8 +92887,62 @@
       <c r="R3">
         <v>120.15936000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>19.533329999999999</v>
+      </c>
+      <c r="T3">
+        <v>2.3937360000000001</v>
+      </c>
+      <c r="U3">
+        <v>0.21851719999999999</v>
+      </c>
+      <c r="V3">
+        <v>13.89167</v>
+      </c>
+      <c r="W3">
+        <v>1.5107226</v>
+      </c>
+      <c r="X3">
+        <v>0.13790948</v>
+      </c>
+      <c r="Y3">
+        <v>33.424999999999997</v>
+      </c>
+      <c r="Z3">
+        <v>2.451762</v>
+      </c>
+      <c r="AA3">
+        <v>0.22381419999999999</v>
+      </c>
+      <c r="AB3">
+        <v>2.6013329999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.16844780000000001</v>
+      </c>
+      <c r="AD3">
+        <v>1.5377109999999999E-2</v>
+      </c>
+      <c r="AE3">
+        <v>265.11579999999998</v>
+      </c>
+      <c r="AF3">
+        <v>41.383429999999997</v>
+      </c>
+      <c r="AG3">
+        <v>3.7777729999999998</v>
+      </c>
+      <c r="AH3">
+        <v>155.4058</v>
+      </c>
+      <c r="AI3">
+        <v>33.326479999999997</v>
+      </c>
+      <c r="AJ3">
+        <v>3.042278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -92798,8 +92997,62 @@
       <c r="R4">
         <v>89.131439999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>22.941179999999999</v>
+      </c>
+      <c r="T4">
+        <v>1.9226208</v>
+      </c>
+      <c r="U4">
+        <v>0.26922079999999998</v>
+      </c>
+      <c r="V4">
+        <v>14.13725</v>
+      </c>
+      <c r="W4">
+        <v>0.89486549999999998</v>
+      </c>
+      <c r="X4">
+        <v>0.12530624000000001</v>
+      </c>
+      <c r="Y4">
+        <v>37.078429999999997</v>
+      </c>
+      <c r="Z4">
+        <v>1.9984310000000001</v>
+      </c>
+      <c r="AA4">
+        <v>0.27983629999999998</v>
+      </c>
+      <c r="AB4">
+        <v>2.5527449999999998</v>
+      </c>
+      <c r="AC4">
+        <v>0.13734740000000001</v>
+      </c>
+      <c r="AD4">
+        <v>1.9232490000000001E-2</v>
+      </c>
+      <c r="AE4">
+        <v>295.20780000000002</v>
+      </c>
+      <c r="AF4">
+        <v>30.561389999999999</v>
+      </c>
+      <c r="AG4">
+        <v>4.2794499999999998</v>
+      </c>
+      <c r="AH4">
+        <v>187.16470000000001</v>
+      </c>
+      <c r="AI4">
+        <v>23.875</v>
+      </c>
+      <c r="AJ4">
+        <v>3.3431679999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -92854,8 +93107,62 @@
       <c r="R5">
         <v>85.519670000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>23.407889999999998</v>
+      </c>
+      <c r="T5">
+        <v>1.8488024000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.21207219999999999</v>
+      </c>
+      <c r="V5">
+        <v>15.697369999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.730657</v>
+      </c>
+      <c r="X5">
+        <v>8.3812109999999995E-2</v>
+      </c>
+      <c r="Y5">
+        <v>39.105260000000001</v>
+      </c>
+      <c r="Z5">
+        <v>1.9905040000000001</v>
+      </c>
+      <c r="AA5">
+        <v>0.22832640000000001</v>
+      </c>
+      <c r="AB5">
+        <v>2.5821049999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.1291853</v>
+      </c>
+      <c r="AD5">
+        <v>1.481857E-2</v>
+      </c>
+      <c r="AE5">
+        <v>309.8184</v>
+      </c>
+      <c r="AF5">
+        <v>26.325620000000001</v>
+      </c>
+      <c r="AG5">
+        <v>3.0197560000000001</v>
+      </c>
+      <c r="AH5">
+        <v>192.6447</v>
+      </c>
+      <c r="AI5">
+        <v>22.20065</v>
+      </c>
+      <c r="AJ5">
+        <v>2.546589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -92910,8 +93217,62 @@
       <c r="R6">
         <v>64.539569999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>17.12987</v>
+      </c>
+      <c r="T6">
+        <v>1.9149731999999999</v>
+      </c>
+      <c r="U6">
+        <v>0.21823139999999999</v>
+      </c>
+      <c r="V6">
+        <v>12.038959999999999</v>
+      </c>
+      <c r="W6">
+        <v>0.83416449999999998</v>
+      </c>
+      <c r="X6">
+        <v>9.5061870000000007E-2</v>
+      </c>
+      <c r="Y6">
+        <v>29.16883</v>
+      </c>
+      <c r="Z6">
+        <v>2.2501609999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.25642969999999998</v>
+      </c>
+      <c r="AB6">
+        <v>2.731792</v>
+      </c>
+      <c r="AC6">
+        <v>0.1544934</v>
+      </c>
+      <c r="AD6">
+        <v>1.7606150000000001E-2</v>
+      </c>
+      <c r="AE6">
+        <v>264.15449999999998</v>
+      </c>
+      <c r="AF6">
+        <v>35.139879999999998</v>
+      </c>
+      <c r="AG6">
+        <v>4.0045609999999998</v>
+      </c>
+      <c r="AH6">
+        <v>194.0078</v>
+      </c>
+      <c r="AI6">
+        <v>36.091410000000003</v>
+      </c>
+      <c r="AJ6">
+        <v>4.1129980000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -92966,8 +93327,62 @@
       <c r="R7">
         <v>94.238470000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>17.9359</v>
+      </c>
+      <c r="T7">
+        <v>1.2826489000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.14523140000000001</v>
+      </c>
+      <c r="V7">
+        <v>13.21795</v>
+      </c>
+      <c r="W7">
+        <v>0.97564410000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.11046994</v>
+      </c>
+      <c r="Y7">
+        <v>31.153849999999998</v>
+      </c>
+      <c r="Z7">
+        <v>1.6832009999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.190585</v>
+      </c>
+      <c r="AB7">
+        <v>2.69075</v>
+      </c>
+      <c r="AC7">
+        <v>0.12960479999999999</v>
+      </c>
+      <c r="AD7">
+        <v>1.467485E-2</v>
+      </c>
+      <c r="AE7">
+        <v>272.69229999999999</v>
+      </c>
+      <c r="AF7">
+        <v>35.655389999999997</v>
+      </c>
+      <c r="AG7">
+        <v>4.0371779999999999</v>
+      </c>
+      <c r="AH7">
+        <v>203.61670000000001</v>
+      </c>
+      <c r="AI7">
+        <v>34.644289999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>3.9226930000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -93022,8 +93437,62 @@
       <c r="R8">
         <v>194.4521</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>21.88991</v>
+      </c>
+      <c r="T8">
+        <v>1.8970711</v>
+      </c>
+      <c r="U8">
+        <v>0.18170649999999999</v>
+      </c>
+      <c r="V8">
+        <v>11.90826</v>
+      </c>
+      <c r="W8">
+        <v>1.076184</v>
+      </c>
+      <c r="X8">
+        <v>0.10307972999999999</v>
+      </c>
+      <c r="Y8">
+        <v>33.798169999999999</v>
+      </c>
+      <c r="Z8">
+        <v>2.0851320000000002</v>
+      </c>
+      <c r="AA8">
+        <v>0.19971939999999999</v>
+      </c>
+      <c r="AB8">
+        <v>2.5554130000000002</v>
+      </c>
+      <c r="AC8">
+        <v>0.13662279999999999</v>
+      </c>
+      <c r="AD8">
+        <v>1.308609E-2</v>
+      </c>
+      <c r="AE8">
+        <v>283.62569999999999</v>
+      </c>
+      <c r="AF8">
+        <v>37.784550000000003</v>
+      </c>
+      <c r="AG8">
+        <v>3.619103</v>
+      </c>
+      <c r="AH8">
+        <v>186.26240000000001</v>
+      </c>
+      <c r="AI8">
+        <v>37.157319999999999</v>
+      </c>
+      <c r="AJ8">
+        <v>3.5590259999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -93078,8 +93547,62 @@
       <c r="R9">
         <v>79.259190000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>22.486730000000001</v>
+      </c>
+      <c r="T9">
+        <v>2.0878690999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.19641020000000001</v>
+      </c>
+      <c r="V9">
+        <v>13.283189999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.79584889999999997</v>
+      </c>
+      <c r="X9">
+        <v>7.4867169999999997E-2</v>
+      </c>
+      <c r="Y9">
+        <v>35.769910000000003</v>
+      </c>
+      <c r="Z9">
+        <v>1.9640010000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.1847577</v>
+      </c>
+      <c r="AB9">
+        <v>2.5762830000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.1460014</v>
+      </c>
+      <c r="AD9">
+        <v>1.3734659999999999E-2</v>
+      </c>
+      <c r="AE9">
+        <v>296.25749999999999</v>
+      </c>
+      <c r="AF9">
+        <v>34.568840000000002</v>
+      </c>
+      <c r="AG9">
+        <v>3.2519629999999999</v>
+      </c>
+      <c r="AH9">
+        <v>184.24870000000001</v>
+      </c>
+      <c r="AI9">
+        <v>34.745179999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>3.2685520000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -93134,8 +93657,62 @@
       <c r="R10">
         <v>124.22485</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>20.2</v>
+      </c>
+      <c r="T10">
+        <v>0.93305320000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.15771479999999999</v>
+      </c>
+      <c r="V10">
+        <v>12.085710000000001</v>
+      </c>
+      <c r="W10">
+        <v>0.56210890000000002</v>
+      </c>
+      <c r="X10">
+        <v>9.5013739999999999E-2</v>
+      </c>
+      <c r="Y10">
+        <v>32</v>
+      </c>
+      <c r="Z10">
+        <v>2.0146519999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.34053840000000002</v>
+      </c>
+      <c r="AB10">
+        <v>2.7325710000000001</v>
+      </c>
+      <c r="AC10">
+        <v>0.1014699</v>
+      </c>
+      <c r="AD10">
+        <v>1.715154E-2</v>
+      </c>
+      <c r="AE10">
+        <v>312.3886</v>
+      </c>
+      <c r="AF10">
+        <v>36.621499999999997</v>
+      </c>
+      <c r="AG10">
+        <v>6.1901630000000001</v>
+      </c>
+      <c r="AH10">
+        <v>198.49430000000001</v>
+      </c>
+      <c r="AI10">
+        <v>36.631630000000001</v>
+      </c>
+      <c r="AJ10">
+        <v>6.1918759999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -93190,8 +93767,62 @@
       <c r="R11">
         <v>82.727270000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>20.47222</v>
+      </c>
+      <c r="T11">
+        <v>1.1080513000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.18467520000000001</v>
+      </c>
+      <c r="V11">
+        <v>13.52778</v>
+      </c>
+      <c r="W11">
+        <v>0.55990359999999995</v>
+      </c>
+      <c r="X11">
+        <v>9.3317269999999994E-2</v>
+      </c>
+      <c r="Y11">
+        <v>34</v>
+      </c>
+      <c r="Z11">
+        <v>1.146423</v>
+      </c>
+      <c r="AA11">
+        <v>0.1910705</v>
+      </c>
+      <c r="AB11">
+        <v>2.7055560000000001</v>
+      </c>
+      <c r="AC11">
+        <v>0.10837620000000001</v>
+      </c>
+      <c r="AD11">
+        <v>1.8062700000000001E-2</v>
+      </c>
+      <c r="AE11">
+        <v>308.3</v>
+      </c>
+      <c r="AF11">
+        <v>38.655859999999997</v>
+      </c>
+      <c r="AG11">
+        <v>6.4426430000000003</v>
+      </c>
+      <c r="AH11">
+        <v>192.5667</v>
+      </c>
+      <c r="AI11">
+        <v>29.417179999999998</v>
+      </c>
+      <c r="AJ11">
+        <v>4.902863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -93246,8 +93877,62 @@
       <c r="R12">
         <v>102.92496</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>20.683540000000001</v>
+      </c>
+      <c r="T12">
+        <v>1.9712308999999999</v>
+      </c>
+      <c r="U12">
+        <v>0.2217808</v>
+      </c>
+      <c r="V12">
+        <v>12.189870000000001</v>
+      </c>
+      <c r="W12">
+        <v>0.60076770000000002</v>
+      </c>
+      <c r="X12">
+        <v>6.7591639999999995E-2</v>
+      </c>
+      <c r="Y12">
+        <v>32.873420000000003</v>
+      </c>
+      <c r="Z12">
+        <v>1.95702</v>
+      </c>
+      <c r="AA12">
+        <v>0.22018190000000001</v>
+      </c>
+      <c r="AB12">
+        <v>2.6325319999999999</v>
+      </c>
+      <c r="AC12">
+        <v>0.17554649999999999</v>
+      </c>
+      <c r="AD12">
+        <v>1.9750529999999999E-2</v>
+      </c>
+      <c r="AE12">
+        <v>289.2165</v>
+      </c>
+      <c r="AF12">
+        <v>40.293889999999998</v>
+      </c>
+      <c r="AG12">
+        <v>4.5334159999999999</v>
+      </c>
+      <c r="AH12">
+        <v>187.9051</v>
+      </c>
+      <c r="AI12">
+        <v>33.094720000000002</v>
+      </c>
+      <c r="AJ12">
+        <v>3.7234470000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -93302,8 +93987,62 @@
       <c r="R13">
         <v>74.109099999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>20.61364</v>
+      </c>
+      <c r="T13">
+        <v>2.1994346999999999</v>
+      </c>
+      <c r="U13">
+        <v>0.23446049999999999</v>
+      </c>
+      <c r="V13">
+        <v>13.76136</v>
+      </c>
+      <c r="W13">
+        <v>0.66079569999999999</v>
+      </c>
+      <c r="X13">
+        <v>7.044106E-2</v>
+      </c>
+      <c r="Y13">
+        <v>34.375</v>
+      </c>
+      <c r="Z13">
+        <v>2.1725159999999999</v>
+      </c>
+      <c r="AA13">
+        <v>0.23159099999999999</v>
+      </c>
+      <c r="AB13">
+        <v>2.6637499999999998</v>
+      </c>
+      <c r="AC13">
+        <v>0.15434929999999999</v>
+      </c>
+      <c r="AD13">
+        <v>1.645369E-2</v>
+      </c>
+      <c r="AE13">
+        <v>296.7</v>
+      </c>
+      <c r="AF13">
+        <v>38.528239999999997</v>
+      </c>
+      <c r="AG13">
+        <v>4.1071239999999998</v>
+      </c>
+      <c r="AH13">
+        <v>185.83070000000001</v>
+      </c>
+      <c r="AI13">
+        <v>31.05649</v>
+      </c>
+      <c r="AJ13">
+        <v>3.3106330000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -93358,8 +94097,62 @@
       <c r="R14">
         <v>28.111519999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>21.90278</v>
+      </c>
+      <c r="T14">
+        <v>1.8010930000000001</v>
+      </c>
+      <c r="U14">
+        <v>0.2122608</v>
+      </c>
+      <c r="V14">
+        <v>12.02778</v>
+      </c>
+      <c r="W14">
+        <v>0.903393</v>
+      </c>
+      <c r="X14">
+        <v>0.10646588999999999</v>
+      </c>
+      <c r="Y14">
+        <v>33.93056</v>
+      </c>
+      <c r="Z14">
+        <v>1.9739599999999999</v>
+      </c>
+      <c r="AA14">
+        <v>0.23263339999999999</v>
+      </c>
+      <c r="AB14">
+        <v>2.556667</v>
+      </c>
+      <c r="AC14">
+        <v>0.1499953</v>
+      </c>
+      <c r="AD14">
+        <v>1.7677120000000001E-2</v>
+      </c>
+      <c r="AE14">
+        <v>283.92219999999998</v>
+      </c>
+      <c r="AF14">
+        <v>36.197929999999999</v>
+      </c>
+      <c r="AG14">
+        <v>4.2659669999999998</v>
+      </c>
+      <c r="AH14">
+        <v>183.50139999999999</v>
+      </c>
+      <c r="AI14">
+        <v>39.814889999999998</v>
+      </c>
+      <c r="AJ14">
+        <v>4.6922300000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -93414,8 +94207,77 @@
       <c r="R15">
         <v>36.784019999999998</v>
       </c>
+      <c r="S15">
+        <v>21.890239999999999</v>
+      </c>
+      <c r="T15">
+        <v>1.9626519</v>
+      </c>
+      <c r="U15">
+        <v>0.2167386</v>
+      </c>
+      <c r="V15">
+        <v>13.426830000000001</v>
+      </c>
+      <c r="W15">
+        <v>0.831932</v>
+      </c>
+      <c r="X15">
+        <v>9.1871519999999998E-2</v>
+      </c>
+      <c r="Y15">
+        <v>35.317070000000001</v>
+      </c>
+      <c r="Z15">
+        <v>1.884819</v>
+      </c>
+      <c r="AA15">
+        <v>0.20814350000000001</v>
+      </c>
+      <c r="AB15">
+        <v>2.6262759999999998</v>
+      </c>
+      <c r="AC15">
+        <v>0.1422273</v>
+      </c>
+      <c r="AD15">
+        <v>1.5706370000000001E-2</v>
+      </c>
+      <c r="AE15">
+        <v>303.1354</v>
+      </c>
+      <c r="AF15">
+        <v>31.14828</v>
+      </c>
+      <c r="AG15">
+        <v>3.4397519999999999</v>
+      </c>
+      <c r="AH15">
+        <v>196.24019999999999</v>
+      </c>
+      <c r="AI15">
+        <v>26.273949999999999</v>
+      </c>
+      <c r="AJ15">
+        <v>2.9014730000000002</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>